--- a/Trabajo de asignatura/Hardware/Hardware.xlsx
+++ b/Trabajo de asignatura/Hardware/Hardware.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\STARKX12\Redes_de_sensores\Trabajo de asignatura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\STARKX12\Redes_de_sensores\Trabajo de asignatura\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D68E50-F890-4FB9-9F98-3B2858377BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7DCB83-0E5B-419A-A6C3-42220DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC962CFA-5E14-4B2B-853D-A98B550A186C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AC962CFA-5E14-4B2B-853D-A98B550A186C}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis de los componentes " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>Nº componente</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Sobrecorriente, temperatura</t>
+  </si>
+  <si>
+    <t>ARGUMENTACIÓN</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +525,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ADLaM Display"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="ADLaM Display"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ADLaM Display"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -558,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -759,6 +777,123 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -772,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,13 +972,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,7 +1044,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,12 +1070,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,6 +1085,93 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1314,16 +1530,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1358,9 +1564,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1368,15 +1572,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1413,7 +1608,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1568,20 +1765,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1607,6 +1790,16 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1614,6 +1807,20 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1673,6 +1880,45 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1695,36 +1941,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1992,6 +2208,385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AFB2D7-5188-239E-4CC4-6731775FBFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13607" y="3292930"/>
+          <a:ext cx="12817929" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="57150" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600"/>
+            <a:t>De acuerdo a lo visto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t> en este análisis, solo son necesarios los elementos U1, U2 y IC1 debido a:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1" baseline="0"/>
+            <a:t>U1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>: Es el dispositivo que contiene el uC con comunicación BLE , por lo que sin este  no sería posible el procesamiento de los datos y el envio al exterior de estos.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1" baseline="0"/>
+            <a:t>U2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>: Es el sensor de movimiento que contiene el acelerometro y el giroscopio, por lo que es escencial para realizar el reconocimiento del movimiento. Pero en este caso es sustituido para intentar aumentar el tiempo entre cargas sin cambiar la batería.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" b="1" baseline="0"/>
+            <a:t>IC1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>: Es el conversor DC que permite adecuar los niveles de tensión a los requeridos por los dispositvos de la PCB.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t>Los demás elementos se pueden calificar como innecsarios para este proyecto debido a que aportan datos innecesarios pero aumentando el cosumo, coste y tamaño del sensor inteligente.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B441D6E8-44F1-9A3C-81AD-008087AC71AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8011823"/>
+          <a:ext cx="23829817" cy="2292496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000"/>
+            <a:t>Tras el análisis realizado se ha obtenido que el sensor debería de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t> ser el  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" b="1" baseline="0"/>
+            <a:t>LSM6DSO16IS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t> debido a:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-Su muy bajo consumo que aumenta el tiempo entre cargas de la batería.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-Tiene incorporada una ISPU que le otorga la capacidad de implentar algoritmos avanzados de ML, de forma que no recaiga dicho peso sobre el uC. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-El número de elementos externos es reducido, por lo que los costes de producción son más reducidos y el número de componentes que pueden fallar también.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-Tiene comunicación compatible con el uC empleado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-Alimentación compatible con el uC, de forma que se reduce el número de convertidores DC.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2000" baseline="0"/>
+            <a:t>-Precio reducido.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA69FB4D-53B7-EE2F-7DC9-27FD42DD0169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2431676"/>
+          <a:ext cx="10858500" cy="1669677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Como</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> la bateria utilizada tiene una tensión mínima de 3V, se ha elegido como tensión de alimentación 2,5V debido a:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>-Es compatible con el uC y el sensor de movimiento.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>-Tener una tensión de salida siempre menor que la de batería permite evitar el empleo de conversores conmutados, que en este caso tienen eficiencias menores a los reguladores debido a la pequeña diferencia entre la tensión de la batería y la de alimentación.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>-Hay una gran cantidad de posibilidades.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>-Los reguladores osn más baratos y no necesitan de muchos elementos externos de filtrado como pueden ser las inductancias.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>Entre las diferentes posibilidades se ha elegido el </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1" baseline="0"/>
+            <a:t>STLQ015M25R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> debido a que su corriente Iq es de 1,4uA, lo cual asegura una mayor eficiencia.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,25 +2607,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1F50E80-E978-4D8A-803A-4E30E5DB7C96}" name="Tabla4" displayName="Tabla4" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="31" dataDxfId="17" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D1F50E80-E978-4D8A-803A-4E30E5DB7C96}" name="Tabla4" displayName="Tabla4" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A1:Q7" xr:uid="{D1F50E80-E978-4D8A-803A-4E30E5DB7C96}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{3693EC6C-1B38-4155-A807-4A3D2185AE35}" name="Nº sensor" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{8945624A-89AF-4531-BB87-68A4E2E13F27}" name="Id fabricante" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{200A0741-214A-4E75-9F1C-BAB72579CC3B}" name="Fabricante" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{EDCE3F03-16F9-4A02-BB4A-39709BBE879C}" name="Precio/unidad (euros)" dataDxfId="14" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{0A53DA85-1992-4A07-93CD-00235850F554}" name="V_in" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{EC49B689-65BD-4F35-9F0B-4319B1C16B07}" name="I_in" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{9D2B5D00-F422-436B-A8CB-86FE3F2FBC0F}" name="Rangos acelerometro" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{0C98B55B-D1A9-45C1-A53F-A8195CBE3E52}" name="Rangos giroscopo" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{F65D1186-52C7-4C6C-95BC-BB4DEB798FFB}" name="Sensibilidad acelerometro" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{DB944D50-E313-4D97-AB99-8BBE5BE588B7}" name="Sensibilidad giroscopo" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{BB2DA9BE-953A-45A6-BD87-41A062DEE5A9}" name="Offset acelerometro" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{2D7BD300-3416-4C21-AAE6-64629CE37D2B}" name="Offset giroscopo" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{A98EF137-3E55-46E4-B2D9-78F01F62C898}" name="Comunicaciones" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{65DE8805-31E2-454A-8296-99D260CF3694}" name="FIFO" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{E3F90E35-7BDE-4CAA-840D-3418A8EE8F53}" name="Extras" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{4D1CDD28-74F8-4C1A-88C7-08CAD8C5F7FA}" name="Nº de elementos externos" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{3693EC6C-1B38-4155-A807-4A3D2185AE35}" name="Nº sensor" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{8945624A-89AF-4531-BB87-68A4E2E13F27}" name="Id fabricante" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{200A0741-214A-4E75-9F1C-BAB72579CC3B}" name="Fabricante" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{EDCE3F03-16F9-4A02-BB4A-39709BBE879C}" name="Precio/unidad (euros)" dataDxfId="26" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{0A53DA85-1992-4A07-93CD-00235850F554}" name="V_in" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{EC49B689-65BD-4F35-9F0B-4319B1C16B07}" name="I_in" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{9D2B5D00-F422-436B-A8CB-86FE3F2FBC0F}" name="Rangos acelerometro" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{0C98B55B-D1A9-45C1-A53F-A8195CBE3E52}" name="Rangos giroscopo" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{F65D1186-52C7-4C6C-95BC-BB4DEB798FFB}" name="Sensibilidad acelerometro" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{DB944D50-E313-4D97-AB99-8BBE5BE588B7}" name="Sensibilidad giroscopo" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{BB2DA9BE-953A-45A6-BD87-41A062DEE5A9}" name="Offset acelerometro" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{2D7BD300-3416-4C21-AAE6-64629CE37D2B}" name="Offset giroscopo" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{A98EF137-3E55-46E4-B2D9-78F01F62C898}" name="Comunicaciones" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{65DE8805-31E2-454A-8296-99D260CF3694}" name="FIFO" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{E3F90E35-7BDE-4CAA-840D-3418A8EE8F53}" name="Extras" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{4D1CDD28-74F8-4C1A-88C7-08CAD8C5F7FA}" name="Nº de elementos externos" dataDxfId="14"/>
     <tableColumn id="17" xr3:uid="{B4C07B52-6513-4702-8B3B-6D5416E21D28}" name="Puntación total" dataDxfId="13">
       <calculatedColumnFormula>9+8+7</calculatedColumnFormula>
     </tableColumn>
@@ -2376,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70642C91-CB09-433C-AC70-EE1500DD6D90}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2602,7 +3197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2628,21 +3223,118 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H18"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DA770-9072-4FFF-9366-EC0C0A01E855}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +3621,7 @@
         <v>105</v>
       </c>
       <c r="Q5" s="44">
-        <f t="shared" ref="Q2:Q7" si="0">9+8+7</f>
+        <f t="shared" ref="Q5" si="0">9+8+7</f>
         <v>24</v>
       </c>
     </row>
@@ -2987,7 +3679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>107</v>
       </c>
@@ -3038,21 +3730,84 @@
       </c>
       <c r="Q7" s="29"/>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="80"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:Q10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2B3CE6-351B-4AF8-9EAA-1C4D8F42B8F2}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,22 +3893,22 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="56">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="57" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="40" t="s">
@@ -3162,56 +3917,88 @@
       <c r="H3" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="58">
         <v>0.02</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+    <row r="4" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="81">
         <v>0.89</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="82">
         <v>0.04</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="36" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:K6"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Trabajo de asignatura/Hardware/Hardware.xlsx
+++ b/Trabajo de asignatura/Hardware/Hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\STARKX12\Redes_de_sensores\Trabajo de asignatura\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7DCB83-0E5B-419A-A6C3-42220DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E472B411-E008-4B8B-87E1-06BFF5437EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AC962CFA-5E14-4B2B-853D-A98B550A186C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{AC962CFA-5E14-4B2B-853D-A98B550A186C}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis de los componentes " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
   <si>
     <t>Nº componente</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>ARGUMENTACIÓN</t>
+  </si>
+  <si>
+    <t>Los pesos han sido asignadoes en función de la importancia de la característica</t>
   </si>
 </sst>
 </file>
@@ -907,7 +910,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,6 +1089,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1107,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1134,7 +1143,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,12 +1158,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,6 +1174,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3224,96 +3230,96 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3333,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DA770-9072-4FFF-9366-EC0C0A01E855}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,66 +3734,68 @@
       <c r="P7" s="45">
         <v>8</v>
       </c>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="89" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="80"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3806,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2B3CE6-351B-4AF8-9EAA-1C4D8F42B8F2}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,22 +3936,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="60">
         <v>0.89</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="60" t="s">
         <v>129</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -3952,7 +3960,7 @@
       <c r="H4" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="61">
         <v>0.04</v>
       </c>
       <c r="J4" s="36" t="s">
